--- a/final_data_pipeline/output/325194_elec_options.xlsx
+++ b/final_data_pipeline/output/325194_elec_options.xlsx
@@ -885,7 +885,7 @@
         <v>102</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -980,7 +980,7 @@
         <v>102</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1075,7 +1075,7 @@
         <v>102</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1170,7 +1170,7 @@
         <v>102</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1265,7 +1265,7 @@
         <v>102</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1360,7 +1360,7 @@
         <v>102</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1455,7 +1455,7 @@
         <v>102</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1550,7 +1550,7 @@
         <v>102</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1645,7 +1645,7 @@
         <v>102</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1740,7 +1740,7 @@
         <v>102</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1835,7 +1835,7 @@
         <v>102</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1930,7 +1930,7 @@
         <v>102</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -2025,7 +2025,7 @@
         <v>102</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2120,7 +2120,7 @@
         <v>102</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2215,7 +2215,7 @@
         <v>102</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2310,7 +2310,7 @@
         <v>102</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2405,7 +2405,7 @@
         <v>102</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2500,7 +2500,7 @@
         <v>103</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2595,7 +2595,7 @@
         <v>103</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2690,7 +2690,7 @@
         <v>103</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2785,7 +2785,7 @@
         <v>103</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2880,7 +2880,7 @@
         <v>103</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2975,7 +2975,7 @@
         <v>103</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -3070,7 +3070,7 @@
         <v>102</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -5068,7 +5068,7 @@
         <v>103</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5166,7 +5166,7 @@
         <v>103</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE47">
         <v>8000</v>
@@ -5264,7 +5264,7 @@
         <v>103</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE48">
         <v>8000</v>
@@ -5359,7 +5359,7 @@
         <v>102</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE49">
         <v>8000</v>
@@ -5454,7 +5454,7 @@
         <v>103</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5549,7 +5549,7 @@
         <v>102</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5644,7 +5644,7 @@
         <v>102</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5739,7 +5739,7 @@
         <v>102</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5834,7 +5834,7 @@
         <v>102</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5929,7 +5929,7 @@
         <v>102</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -6024,7 +6024,7 @@
         <v>103</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -7639,7 +7639,7 @@
         <v>102</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -7734,7 +7734,7 @@
         <v>102</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -7829,7 +7829,7 @@
         <v>103</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -7924,7 +7924,7 @@
         <v>102</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -8399,7 +8399,7 @@
         <v>102</v>
       </c>
       <c r="AD81">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE81">
         <v>8000</v>
@@ -8494,7 +8494,7 @@
         <v>102</v>
       </c>
       <c r="AD82">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE82">
         <v>8000</v>
@@ -8589,7 +8589,7 @@
         <v>102</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE83">
         <v>8000</v>
@@ -8684,7 +8684,7 @@
         <v>102</v>
       </c>
       <c r="AD84">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE84">
         <v>8000</v>
@@ -8779,7 +8779,7 @@
         <v>102</v>
       </c>
       <c r="AD85">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE85">
         <v>8000</v>
@@ -8874,7 +8874,7 @@
         <v>102</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE86">
         <v>8000</v>
@@ -8969,7 +8969,7 @@
         <v>102</v>
       </c>
       <c r="AD87">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE87">
         <v>8000</v>
@@ -9064,7 +9064,7 @@
         <v>102</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE88">
         <v>8000</v>
@@ -9159,7 +9159,7 @@
         <v>102</v>
       </c>
       <c r="AD89">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE89">
         <v>8000</v>
@@ -9254,7 +9254,7 @@
         <v>102</v>
       </c>
       <c r="AD90">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE90">
         <v>8000</v>
@@ -9349,7 +9349,7 @@
         <v>102</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE91">
         <v>8000</v>
@@ -9444,7 +9444,7 @@
         <v>103</v>
       </c>
       <c r="AD92">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE92">
         <v>8000</v>
@@ -9539,7 +9539,7 @@
         <v>103</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE93">
         <v>8000</v>
@@ -9634,7 +9634,7 @@
         <v>103</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE94">
         <v>8000</v>
@@ -9729,7 +9729,7 @@
         <v>103</v>
       </c>
       <c r="AD95">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE95">
         <v>8000</v>
@@ -9824,7 +9824,7 @@
         <v>103</v>
       </c>
       <c r="AD96">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE96">
         <v>8000</v>
@@ -9919,7 +9919,7 @@
         <v>103</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -10014,7 +10014,7 @@
         <v>103</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -10109,7 +10109,7 @@
         <v>102</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -10204,7 +10204,7 @@
         <v>102</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -10299,7 +10299,7 @@
         <v>102</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -10394,7 +10394,7 @@
         <v>102</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -10489,7 +10489,7 @@
         <v>102</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -10584,7 +10584,7 @@
         <v>102</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -10679,7 +10679,7 @@
         <v>102</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -10774,7 +10774,7 @@
         <v>102</v>
       </c>
       <c r="AD106">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE106">
         <v>8000</v>
@@ -10869,7 +10869,7 @@
         <v>102</v>
       </c>
       <c r="AD107">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE107">
         <v>8000</v>
@@ -10964,7 +10964,7 @@
         <v>102</v>
       </c>
       <c r="AD108">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE108">
         <v>8000</v>
